--- a/All Team Preadictions Test and ODIs.xlsx
+++ b/All Team Preadictions Test and ODIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajes\Desktop\Inside-Out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6255FC-033E-46FF-A6CB-229C9D8462F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6E0913-D144-4EE9-A460-00F4C224CB7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" activeTab="1" xr2:uid="{9FF0A19E-4CC4-453E-B28C-22FBE9E32ADB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="653">
   <si>
     <t>Tests</t>
   </si>
@@ -998,13 +998,1003 @@
   </si>
   <si>
     <t>Sohail Khan:0.7434051488209857</t>
+  </si>
+  <si>
+    <t>ODIS</t>
+  </si>
+  <si>
+    <t>Kohli V : 48.90574182372023</t>
+  </si>
+  <si>
+    <t>Zaheer Abbas : 48.69434245449234</t>
+  </si>
+  <si>
+    <t>Trott I J L : 48.56303132664924</t>
+  </si>
+  <si>
+    <t>Richards I V A : 44.33022883410812</t>
+  </si>
+  <si>
+    <t>de Villiers A B : 44.229334247184845</t>
+  </si>
+  <si>
+    <t>Amla H M : 42.06217803727083</t>
+  </si>
+  <si>
+    <t>Bevan M G : 41.00341884978064</t>
+  </si>
+  <si>
+    <t>Root J E : 39.96594314175108</t>
+  </si>
+  <si>
+    <t>Dhoni M S : 39.45484691764698</t>
+  </si>
+  <si>
+    <t>Bond S E : 1.389097579056246</t>
+  </si>
+  <si>
+    <t>Garner J : 1.305133325499127</t>
+  </si>
+  <si>
+    <t>Holding M A : 1.2417925908587695</t>
+  </si>
+  <si>
+    <t>Starc M A : 1.2376191681540845</t>
+  </si>
+  <si>
+    <t>Donald A A : 1.2216394220226576</t>
+  </si>
+  <si>
+    <t>Boult T A : 1.1756741703575828</t>
+  </si>
+  <si>
+    <t>Pollock S M : 1.1740905002706719</t>
+  </si>
+  <si>
+    <t>Steyn D W : 1.1692471016571977</t>
+  </si>
+  <si>
+    <t>Clarke M J : 34.53337865339904</t>
+  </si>
+  <si>
+    <t>Hussey M E K : 33.887152091162854</t>
+  </si>
+  <si>
+    <t>Bailey G J : 32.37031148796234</t>
+  </si>
+  <si>
+    <t>Warner D A : 31.771659938326195</t>
+  </si>
+  <si>
+    <t>Watson S R : 30.827104792228322</t>
+  </si>
+  <si>
+    <t>Smith S P D : 29.35580842843086</t>
+  </si>
+  <si>
+    <t>Misbah-ul-Haq : 37.98590139956186</t>
+  </si>
+  <si>
+    <t>Mohammad Yousuf : 34.090025461711456</t>
+  </si>
+  <si>
+    <t>Ahmed Shehzad : 29.581428383297634</t>
+  </si>
+  <si>
+    <t>Mohammad Hafeez : 28.535196040828883</t>
+  </si>
+  <si>
+    <t>Umar Akmal : 28.499823387069103</t>
+  </si>
+  <si>
+    <t>Salman Butt : 27.694756894651807</t>
+  </si>
+  <si>
+    <t>Taylor L R P L : 38.78270891694415</t>
+  </si>
+  <si>
+    <t>Williamson K S : 37.11163060785167</t>
+  </si>
+  <si>
+    <t>Guptill M J : 35.640429029195225</t>
+  </si>
+  <si>
+    <t>Styris S B : 29.49004695816145</t>
+  </si>
+  <si>
+    <t>Elliott G D : 27.025930437412264</t>
+  </si>
+  <si>
+    <t>McCullum B B : 24.722790707146263</t>
+  </si>
+  <si>
+    <t>Sarwan R R : 37.62991064208177</t>
+  </si>
+  <si>
+    <t>Gayle C H : 34.45495107974374</t>
+  </si>
+  <si>
+    <t>Samuels M N : 29.120452222779235</t>
+  </si>
+  <si>
+    <t>Simmons L M P : 28.756438921314974</t>
+  </si>
+  <si>
+    <t>Bravo D M : 27.92120066930711</t>
+  </si>
+  <si>
+    <t>Hinds W W : 23.74145120740629</t>
+  </si>
+  <si>
+    <t>Knight N V : 36.862717502037405</t>
+  </si>
+  <si>
+    <t>Pietersen K P : 34.69608576401907</t>
+  </si>
+  <si>
+    <t>Trescothick M E : 33.479540313075276</t>
+  </si>
+  <si>
+    <t>Bell I R : 32.89182825202866</t>
+  </si>
+  <si>
+    <t>Dhawan S : 37.46518484853828</t>
+  </si>
+  <si>
+    <t>Sharma R G : 35.1040782235961</t>
+  </si>
+  <si>
+    <t>Dravid R : 31.634871658988928</t>
+  </si>
+  <si>
+    <t>Gambhir G : 30.59781985517169</t>
+  </si>
+  <si>
+    <t>Sangakkara K C : 39.36188327658167</t>
+  </si>
+  <si>
+    <t>Dilshan T M : 35.02162843792445</t>
+  </si>
+  <si>
+    <t>Mathews A D : 34.46564120668084</t>
+  </si>
+  <si>
+    <t>Tharanga W U : 29.86438694812293</t>
+  </si>
+  <si>
+    <t>Thirimanne H D R L : 29.28880130429754</t>
+  </si>
+  <si>
+    <t>Jayawardene D P M D : 28.11788579844497</t>
+  </si>
+  <si>
+    <t>Shakib Al Hasan : 31.682084708512722</t>
+  </si>
+  <si>
+    <t>Tamim Iqbal : 31.447538468856497</t>
+  </si>
+  <si>
+    <t>Mushfiqur Rahim : 30.07681325892184</t>
+  </si>
+  <si>
+    <t>Mahmudullah : 26.519812690292902</t>
+  </si>
+  <si>
+    <t>Imrul Kayes : 25.7909397527627</t>
+  </si>
+  <si>
+    <t>Shahriar Nafees : 24.691221111576706</t>
+  </si>
+  <si>
+    <t>Taylor B R M : 30.966090867993532</t>
+  </si>
+  <si>
+    <t>Taibu T : 25.372627004500075</t>
+  </si>
+  <si>
+    <t>Goodwin M W : 21.722888311741297</t>
+  </si>
+  <si>
+    <t>Chigumbura E : 21.460814956238398</t>
+  </si>
+  <si>
+    <t>Sibanda V : 21.320404875607313</t>
+  </si>
+  <si>
+    <t>Masakadza H : 21.016588217819432</t>
+  </si>
+  <si>
+    <t>Kallis J H : 36.288252110887555</t>
+  </si>
+  <si>
+    <t>du Plessis F : 34.04559754969522</t>
+  </si>
+  <si>
+    <t>de Kock Q : 33.886887995641345</t>
+  </si>
+  <si>
+    <t>Dippenaar H H : 33.76298143029136</t>
+  </si>
+  <si>
+    <t>Jones D M : 40.87492751201589</t>
+  </si>
+  <si>
+    <t>Chappell G S : 40.404197796780174</t>
+  </si>
+  <si>
+    <t>Marsh G R : 35.805303984618554</t>
+  </si>
+  <si>
+    <t>Javed Miandad : 39.123145667368526</t>
+  </si>
+  <si>
+    <t>Saeed Anwar : 33.218921625860325</t>
+  </si>
+  <si>
+    <t>Inzamam-ul-Haq : 32.095361596231456</t>
+  </si>
+  <si>
+    <t>Crowe M D : 37.60201074863964</t>
+  </si>
+  <si>
+    <t>Twose R G : 33.4814521629221</t>
+  </si>
+  <si>
+    <t>Jones A H : 32.88732743591125</t>
+  </si>
+  <si>
+    <t>Greenidge C G : 40.77375167290425</t>
+  </si>
+  <si>
+    <t>Haynes D L : 39.331708973178685</t>
+  </si>
+  <si>
+    <t>Lara B C : 37.44180077959816</t>
+  </si>
+  <si>
+    <t>Chanderpaul S : 35.865380526983444</t>
+  </si>
+  <si>
+    <t>Lamb A J : 36.03580381013442</t>
+  </si>
+  <si>
+    <t>Smith R A : 34.38125254868299</t>
+  </si>
+  <si>
+    <t>Tendulkar S R : 38.85515295222984</t>
+  </si>
+  <si>
+    <t>Ganguly S C : 33.13872021736671</t>
+  </si>
+  <si>
+    <t>Atapattu M S : 32.338048837282216</t>
+  </si>
+  <si>
+    <t>Ranatunga A : 31.4563749457752</t>
+  </si>
+  <si>
+    <t>de Silva P A : 30.63550579866416</t>
+  </si>
+  <si>
+    <t>Flower A : 30.688930530590888</t>
+  </si>
+  <si>
+    <t>Flower G W : 30.047402213600577</t>
+  </si>
+  <si>
+    <t>Campbell A D R : 26.258645880059625</t>
+  </si>
+  <si>
+    <t>Houghton D L : 23.29254798928821</t>
+  </si>
+  <si>
+    <t>Starc M A:1.2376191681540845</t>
+  </si>
+  <si>
+    <t>McGrath G D:1.1520650533675674</t>
+  </si>
+  <si>
+    <t>Lee B:1.1453442239059861</t>
+  </si>
+  <si>
+    <t>McDermott C J:1.1270043750229475</t>
+  </si>
+  <si>
+    <t>Gillespie J N:1.1269371505519625</t>
+  </si>
+  <si>
+    <t>Saqlain Mushtaq:1.2061866683910218</t>
+  </si>
+  <si>
+    <t>Saeed Ajmal:1.1689634771634747</t>
+  </si>
+  <si>
+    <t>Shoaib Akhtar:1.1554521863368241</t>
+  </si>
+  <si>
+    <t>Wasim Akram:1.147852779988122</t>
+  </si>
+  <si>
+    <t>Waqar Younis:1.1058832721006693</t>
+  </si>
+  <si>
+    <t>Mustafizur Rahman:1.4501999868731739</t>
+  </si>
+  <si>
+    <t>Shakib Al Hasan:0.9572994097179429</t>
+  </si>
+  <si>
+    <t>Abdur Razzak:0.887673400729724</t>
+  </si>
+  <si>
+    <t>Mashrafe Mortaza:0.866948411588896</t>
+  </si>
+  <si>
+    <t>Rubel Hossain:0.8547088596263731</t>
+  </si>
+  <si>
+    <t>Mupariwa T:0.9478030296286039</t>
+  </si>
+  <si>
+    <t>Price R W:0.8806085348335317</t>
+  </si>
+  <si>
+    <t>Brent G B:0.8041978129861594</t>
+  </si>
+  <si>
+    <t>Mpofu C B:0.6705061772101305</t>
+  </si>
+  <si>
+    <t>Utseya P:0.6684014326724154</t>
+  </si>
+  <si>
+    <t>Bond S E:1.3906297871768638</t>
+  </si>
+  <si>
+    <t>Boult T A:1.1765028320763427</t>
+  </si>
+  <si>
+    <t>Hadlee R J:1.1368787968044545</t>
+  </si>
+  <si>
+    <t>McClenaghan M J:1.0959435288650823</t>
+  </si>
+  <si>
+    <t>Mills K D:1.064429219922306</t>
+  </si>
+  <si>
+    <t>Garner J:1.3061704626484367</t>
+  </si>
+  <si>
+    <t>Holding M A:1.2424226530862574</t>
+  </si>
+  <si>
+    <t>Patterson B P:1.0949245672119334</t>
+  </si>
+  <si>
+    <t>Ambrose C E L:1.0602952259660323</t>
+  </si>
+  <si>
+    <t>Narine S P:1.0460460901083466</t>
+  </si>
+  <si>
+    <t>Woakes C R:1.0622266411470598</t>
+  </si>
+  <si>
+    <t>Flintoff A:1.0598377194115727</t>
+  </si>
+  <si>
+    <t>Gough D:1.0246849457540568</t>
+  </si>
+  <si>
+    <t>Plunkett L E:1.0050320754042446</t>
+  </si>
+  <si>
+    <t>Anderson J M:0.9928827383675644</t>
+  </si>
+  <si>
+    <t>Mohammed Shami:1.10450568859448</t>
+  </si>
+  <si>
+    <t>Agarkar A B:1.079327742530633</t>
+  </si>
+  <si>
+    <t>Srinath J:1.0203012916836718</t>
+  </si>
+  <si>
+    <t>Ashwin R:1.01687582830828</t>
+  </si>
+  <si>
+    <t>Kapil Dev:1.0159956720620331</t>
+  </si>
+  <si>
+    <t>Muralitharan M:1.1303116628614025</t>
+  </si>
+  <si>
+    <t>Mendis B A W:1.1104545064968034</t>
+  </si>
+  <si>
+    <t>Vaas W P U J C:1.0670896523314743</t>
+  </si>
+  <si>
+    <t>Lakmal R A S:1.0536021794744328</t>
+  </si>
+  <si>
+    <t>Maharoof M F:1.028201531765211</t>
+  </si>
+  <si>
+    <t>Shakib Al Hasan:0.9573634836795898</t>
+  </si>
+  <si>
+    <t>Abdur Razzak:0.8877085877334994</t>
+  </si>
+  <si>
+    <t>Mashrafe Mortaza:0.8670398840128191</t>
+  </si>
+  <si>
+    <t>Rubel Hossain:0.8544986173642762</t>
+  </si>
+  <si>
+    <t>Mohammad Rafique:0.7582040877146562</t>
+  </si>
+  <si>
+    <t>Streak H H:1.003894045648614</t>
+  </si>
+  <si>
+    <t>Price R W:0.8812124283844412</t>
+  </si>
+  <si>
+    <t>Strang P A:0.8617137372395803</t>
+  </si>
+  <si>
+    <t>Flower G W:0.7416125647912827</t>
+  </si>
+  <si>
+    <t>Whittall G J:0.7071925225288355</t>
+  </si>
+  <si>
+    <t>Tsotsobe L L:1.264975750101218</t>
+  </si>
+  <si>
+    <t>Donald A A:1.222692315010069</t>
+  </si>
+  <si>
+    <t>Pollock S M:1.1743575046410824</t>
+  </si>
+  <si>
+    <t>Steyn D W:1.1701848014385101</t>
+  </si>
+  <si>
+    <t>Imran Tahir:1.1566878229627804</t>
+  </si>
+  <si>
+    <t>Nel A:1.1526924655355817</t>
+  </si>
+  <si>
+    <t>Malinga S L:1.0193077678969815</t>
+  </si>
+  <si>
+    <t>Zoysa D N T:1.0087942816303301</t>
+  </si>
+  <si>
+    <t>Khan Z:1.0012906650085416</t>
+  </si>
+  <si>
+    <t>Pathan I K:0.990086795460797</t>
+  </si>
+  <si>
+    <t>Finn S T:0.987434484853701</t>
+  </si>
+  <si>
+    <t>Taylor J E:1.035142409920444</t>
+  </si>
+  <si>
+    <t>Rampaul R:1.0075384251175263</t>
+  </si>
+  <si>
+    <t>Dillon M V:1.006450192573449</t>
+  </si>
+  <si>
+    <t>Bravo D J J:0.9842150700479286</t>
+  </si>
+  <si>
+    <t>Oram J D P:1.0223405857280168</t>
+  </si>
+  <si>
+    <t>Saeed Ajmal:1.1695551206953003</t>
+  </si>
+  <si>
+    <t>Shoaib Akhtar:1.156436966162778</t>
+  </si>
+  <si>
+    <t>Mohammad Irfan:0.9917478587010401</t>
+  </si>
+  <si>
+    <t>Naved-ul-Hasan:0.9905020403259347</t>
+  </si>
+  <si>
+    <t>Mohammad Sami:0.9851674199654581</t>
+  </si>
+  <si>
+    <t>Starc M A:1.2388290749405766</t>
+  </si>
+  <si>
+    <t>Lee B:1.146208211295317</t>
+  </si>
+  <si>
+    <t>Gillespie J N:1.1274653077834638</t>
+  </si>
+  <si>
+    <t>McKay C J:1.1222032495722754</t>
+  </si>
+  <si>
+    <t>Bracken N W:1.121290927554088</t>
+  </si>
+  <si>
+    <t>Stoinis M P : 36.57638138271823</t>
+  </si>
+  <si>
+    <t>Finch A J : 26.28198920232161</t>
+  </si>
+  <si>
+    <t>Marsh S E : 23.362225322291717</t>
+  </si>
+  <si>
+    <t>Maxwell G J : 22.763693263058116</t>
+  </si>
+  <si>
+    <t>Marsh M R : 22.654645746746795</t>
+  </si>
+  <si>
+    <t>White C L : 22.436919905619206</t>
+  </si>
+  <si>
+    <t>Head T M : 19.882174239457047</t>
+  </si>
+  <si>
+    <t>Faulkner J P : 18.693403481260635</t>
+  </si>
+  <si>
+    <t>Khawaja U T : 18.547924742134402</t>
+  </si>
+  <si>
+    <t>Haris Sohail : 37.2121252112524</t>
+  </si>
+  <si>
+    <t>Babar Azam : 37.2110344467522</t>
+  </si>
+  <si>
+    <t>Azhar Ali : 32.385491484764486</t>
+  </si>
+  <si>
+    <t>Fakhar Zaman : 31.192756502611413</t>
+  </si>
+  <si>
+    <t>Shoaib Malik : 26.374929214353184</t>
+  </si>
+  <si>
+    <t>Sohaib Maqsood : 26.33984917050144</t>
+  </si>
+  <si>
+    <t>Sarfraz Ahmed : 24.029949618452566</t>
+  </si>
+  <si>
+    <t>Mohammad Rizwan : 19.52704893719024</t>
+  </si>
+  <si>
+    <t>Asad Shafiq : 18.680035963719007</t>
+  </si>
+  <si>
+    <t>Latham T W M : 24.009538054264414</t>
+  </si>
+  <si>
+    <t>Worker G H : 22.633226297694353</t>
+  </si>
+  <si>
+    <t>Watling B J : 22.108902758302946</t>
+  </si>
+  <si>
+    <t>Anderson C J : 20.63819763381222</t>
+  </si>
+  <si>
+    <t>Nicholls H M : 18.328410672643297</t>
+  </si>
+  <si>
+    <t>Broom N T : 17.165388500684426</t>
+  </si>
+  <si>
+    <t>de Grandhomme C : 16.860032132568698</t>
+  </si>
+  <si>
+    <t>Lewis E : 25.104847636649794</t>
+  </si>
+  <si>
+    <t>Hope S D : 24.839277991643492</t>
+  </si>
+  <si>
+    <t>Charles J : 23.73507920623891</t>
+  </si>
+  <si>
+    <t>Pollard K A : 23.106651493524552</t>
+  </si>
+  <si>
+    <t>Mohammed J N : 20.82992210771308</t>
+  </si>
+  <si>
+    <t>Powell K O A : 19.203774083658907</t>
+  </si>
+  <si>
+    <t>Ramdin D : 19.16567298710422</t>
+  </si>
+  <si>
+    <t>Brathwaite K C : 18.404489702517026</t>
+  </si>
+  <si>
+    <t>Carter J L : 17.325110191716295</t>
+  </si>
+  <si>
+    <t>Morgan E J G : 29.048208963781505</t>
+  </si>
+  <si>
+    <t>Buttler J C : 27.969182721068048</t>
+  </si>
+  <si>
+    <t>Bairstow J M : 26.846426905061755</t>
+  </si>
+  <si>
+    <t>Roy J J : 25.396231339118852</t>
+  </si>
+  <si>
+    <t>Hales A D : 23.486679662874092</t>
+  </si>
+  <si>
+    <t>Stokes B A : 22.468485226225297</t>
+  </si>
+  <si>
+    <t>Ali M M : 17.86906924794184</t>
+  </si>
+  <si>
+    <t>Woakes C R : 13.879023977125147</t>
+  </si>
+  <si>
+    <t>Billings S W : 12.076872403053317</t>
+  </si>
+  <si>
+    <t>Plunkett L E : 9.591267991771394</t>
+  </si>
+  <si>
+    <t>Rashid A U : 9.32028471250128</t>
+  </si>
+  <si>
+    <t>Rayudu A T : 40.38191177965325</t>
+  </si>
+  <si>
+    <t>Rahul K L : 40.3535195988706</t>
+  </si>
+  <si>
+    <t>Yuvraj Singh : 27.7627689700974</t>
+  </si>
+  <si>
+    <t>Rahane A M : 27.000960151958026</t>
+  </si>
+  <si>
+    <t>Jadhav K M : 23.391050563223583</t>
+  </si>
+  <si>
+    <t>Jadeja R A : 19.738337496042835</t>
+  </si>
+  <si>
+    <t>Karthik K D : 19.40772498434752</t>
+  </si>
+  <si>
+    <t>Pandey M K : 18.483542903587526</t>
+  </si>
+  <si>
+    <t>Chandimal L D : 26.079173978379114</t>
+  </si>
+  <si>
+    <t>Dickwella N : 25.382709729708164</t>
+  </si>
+  <si>
+    <t>Mendis B K G : 22.275643360510397</t>
+  </si>
+  <si>
+    <t>Perera M D K J : 21.556627402152433</t>
+  </si>
+  <si>
+    <t>Gunathilaka M D : 20.661707921777094</t>
+  </si>
+  <si>
+    <t>de Silva D M : 17.995696335981886</t>
+  </si>
+  <si>
+    <t>Gunaratne D A S : 17.539921983207602</t>
+  </si>
+  <si>
+    <t>Siriwardana T A M : 16.66753142547307</t>
+  </si>
+  <si>
+    <t>Soumya Sarkar : 33.81536757250015</t>
+  </si>
+  <si>
+    <t>Anamul Haque : 32.269385751034115</t>
+  </si>
+  <si>
+    <t>Nasir Hossain : 25.27134069556513</t>
+  </si>
+  <si>
+    <t>Sabbir Rahman : 18.671826735564064</t>
+  </si>
+  <si>
+    <t>Mosaddeck Hossain : 16.380457034672023</t>
+  </si>
+  <si>
+    <t>Liton Das : 9.654104140265163</t>
+  </si>
+  <si>
+    <t>Mashrafe Mortaza : 7.794724533445481</t>
+  </si>
+  <si>
+    <t>Ervine C R : 28.878246196992283</t>
+  </si>
+  <si>
+    <t>Sikandar Raza : 27.041188404744286</t>
+  </si>
+  <si>
+    <t>Williams S C : 24.979529964873777</t>
+  </si>
+  <si>
+    <t>Chibhabha C J : 20.012596917049613</t>
+  </si>
+  <si>
+    <t>Mire S F : 19.353746344111705</t>
+  </si>
+  <si>
+    <t>Waller M N : 14.472697861101281</t>
+  </si>
+  <si>
+    <t>Mutumbami R : 13.969948703366667</t>
+  </si>
+  <si>
+    <t>Chari B B : 12.85088978164475</t>
+  </si>
+  <si>
+    <t>Rossouw R R : 29.007660153515243</t>
+  </si>
+  <si>
+    <t>Miller D A : 26.279636022538178</t>
+  </si>
+  <si>
+    <t>Duminy J-P : 24.593247644102334</t>
+  </si>
+  <si>
+    <t>Behardien F : 18.07809769614365</t>
+  </si>
+  <si>
+    <t>Markram A K : 15.464071875063086</t>
+  </si>
+  <si>
+    <t>Phehlukwayo A L : 12.814466549525418</t>
+  </si>
+  <si>
+    <t>Rabada K:1.1929100132929475</t>
+  </si>
+  <si>
+    <t>Steyn D W:1.1735004635323751</t>
+  </si>
+  <si>
+    <t>Imran Tahir:1.1588863142562278</t>
+  </si>
+  <si>
+    <t>Morkel M:1.0684734298941152</t>
+  </si>
+  <si>
+    <t>Phangiso A M:0.9902572568225871</t>
+  </si>
+  <si>
+    <t>Parnell W D:0.9563597627429954</t>
+  </si>
+  <si>
+    <t>Abbott K J:0.9193710662618064</t>
+  </si>
+  <si>
+    <t>Morris C H:0.8749612430863404</t>
+  </si>
+  <si>
+    <t>Mupariwa T:0.949139376974728</t>
+  </si>
+  <si>
+    <t>Vitori B V:0.9115551415365305</t>
+  </si>
+  <si>
+    <t>Masakadza H:0.8790398186226779</t>
+  </si>
+  <si>
+    <t>Chatara T L:0.853839722612416</t>
+  </si>
+  <si>
+    <t>Jarvis K M:0.6968334806722188</t>
+  </si>
+  <si>
+    <t>Cremer A G:0.6877487629486392</t>
+  </si>
+  <si>
+    <t>Mpofu C B:0.6695666604339484</t>
+  </si>
+  <si>
+    <t>Panyangara T:0.6550245256837903</t>
+  </si>
+  <si>
+    <t>Mustafizur Rahman:1.4541169957177844</t>
+  </si>
+  <si>
+    <t>Taskin Ahmed:0.9371137407903087</t>
+  </si>
+  <si>
+    <t>Rubel Hossain:0.8552913290108483</t>
+  </si>
+  <si>
+    <t>Shafiul Islam:0.7662997426688342</t>
+  </si>
+  <si>
+    <t>Lakmal R A S:1.0553298462878036</t>
+  </si>
+  <si>
+    <t>Maharoof M F:1.0297665909758644</t>
+  </si>
+  <si>
+    <t>Malinga S L:1.0211681963364123</t>
+  </si>
+  <si>
+    <t>Perera N L T C:0.9541244814619134</t>
+  </si>
+  <si>
+    <t>Dananjaya A:0.9439870482354248</t>
+  </si>
+  <si>
+    <t>Kulasekara K M D N:0.9030453761097421</t>
+  </si>
+  <si>
+    <t>Pradeep N:0.8983704955736304</t>
+  </si>
+  <si>
+    <t>Bumrah J J:1.409359192016211</t>
+  </si>
+  <si>
+    <t>Kuldeep Yadav:1.390185722066963</t>
+  </si>
+  <si>
+    <t>Chahal Y S:1.3043655838444475</t>
+  </si>
+  <si>
+    <t>Mishra A:1.1299273184974008</t>
+  </si>
+  <si>
+    <t>Mohammed Shami:1.1071271997901657</t>
+  </si>
+  <si>
+    <t>Ashwin R:1.0176494577423512</t>
+  </si>
+  <si>
+    <t>Patel A R:0.9716384529284315</t>
+  </si>
+  <si>
+    <t>Sharma I:0.971031987072119</t>
+  </si>
+  <si>
+    <t>Finn S T:0.9882832916264249</t>
+  </si>
+  <si>
+    <t>Broad S C J:0.97492958689272</t>
+  </si>
+  <si>
+    <t>Rashid A U:0.9656462924710332</t>
+  </si>
+  <si>
+    <t>Willey D J:0.9116692126834721</t>
+  </si>
+  <si>
+    <t>Jordan C J:0.8679105555637469</t>
+  </si>
+  <si>
+    <t>Narine S P:1.0452839278263695</t>
+  </si>
+  <si>
+    <t>Taylor J E:1.037080545526622</t>
+  </si>
+  <si>
+    <t>Bishoo D:0.9226049573491722</t>
+  </si>
+  <si>
+    <t>Miller N O:0.8667524404747831</t>
+  </si>
+  <si>
+    <t>Holder J O:0.847464740719066</t>
+  </si>
+  <si>
+    <t>Nurse A R:0.7914112267945215</t>
+  </si>
+  <si>
+    <t>Benn S J:0.763384359067206</t>
+  </si>
+  <si>
+    <t>Brathwaite C R:0.672413196695417</t>
+  </si>
+  <si>
+    <t>Henry M J:1.2888058917861416</t>
+  </si>
+  <si>
+    <t>Bennett H K:1.2445884224382424</t>
+  </si>
+  <si>
+    <t>Boult T A:1.1794444345935418</t>
+  </si>
+  <si>
+    <t>Santner M J:1.1125305210062377</t>
+  </si>
+  <si>
+    <t>Elliott G D:1.0435085204415562</t>
+  </si>
+  <si>
+    <t>Sodhi I S:0.9593584350717936</t>
+  </si>
+  <si>
+    <t>Bracewell D A J:0.959004320608666</t>
+  </si>
+  <si>
+    <t>Hasan Ali:1.466109422459048</t>
+  </si>
+  <si>
+    <t>Mohammad Amir:1.0845012670939982</t>
+  </si>
+  <si>
+    <t>Shadab Khan:1.0694963887423896</t>
+  </si>
+  <si>
+    <t>Mohammad Irfan:0.9926426782984397</t>
+  </si>
+  <si>
+    <t>Junaid Khan:0.9559151429320109</t>
+  </si>
+  <si>
+    <t>Umar Gul:0.9445113065753344</t>
+  </si>
+  <si>
+    <t>Wahab Riaz:0.93014534767647</t>
+  </si>
+  <si>
+    <t>Imad Wasim:0.9274449302561878</t>
+  </si>
+  <si>
+    <t>Starc M A:1.2431613785938471</t>
+  </si>
+  <si>
+    <t>Hazlewood J R:1.0917035497786187</t>
+  </si>
+  <si>
+    <t>Cummins P J:1.0521387582105983</t>
+  </si>
+  <si>
+    <t>Coulter-Nile N M:0.9824595519625191</t>
+  </si>
+  <si>
+    <t>Hastings J W:0.9659036649119732</t>
+  </si>
+  <si>
+    <t>Marsh M R:0.9472548328536828</t>
+  </si>
+  <si>
+    <t>Richardson K W:0.8751606514139835</t>
+  </si>
+  <si>
+    <t>World Cup Team Predictions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +2022,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1074,7 +2078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1098,11 +2102,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1118,7 +2145,7 @@
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1137,7 +2164,7 @@
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1156,425 +2183,7 @@
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1586,6 +2195,650 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -1594,44 +2847,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1657,6 +2872,82 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -1665,44 +2956,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1728,6 +2981,82 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -1736,44 +3065,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1799,6 +3090,82 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -1807,44 +3174,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1870,6 +3199,82 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -1878,44 +3283,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1941,6 +3308,82 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -1949,44 +3392,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2012,6 +3417,82 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -2020,44 +3501,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2083,6 +3526,82 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -2109,6 +3628,32 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2124,6 +3669,139 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2274,129 +3952,260 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDE2B91C-D6D3-47A5-BF4E-F53EEE46FAB0}" name="Table1" displayName="Table1" ref="A3:B14" totalsRowShown="0" headerRowDxfId="70" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDE2B91C-D6D3-47A5-BF4E-F53EEE46FAB0}" name="Table1" displayName="Table1" ref="A3:B14" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E53B8AE7-758A-4741-A2C9-A5FA1D38D86C}" name="All Time XI" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{9044C89A-1607-466D-ADEB-3A6A7905A79F}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{E53B8AE7-758A-4741-A2C9-A5FA1D38D86C}" name="All Time XI" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{9044C89A-1607-466D-ADEB-3A6A7905A79F}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67111734-2348-479D-997F-DCA791EA0532}" name="Table11" displayName="Table11" ref="A72:C87" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28" headerRowBorderDxfId="30" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67111734-2348-479D-997F-DCA791EA0532}" name="Table11" displayName="Table11" ref="A72:C87" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
   <autoFilter ref="A72:C87" xr:uid="{C0B82C99-D216-46C9-9B1C-479E583F0FB9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C95A1172-C01A-4F7A-88D2-75691086AB5E}" name="All Time XI" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{8133AE13-639A-4C2B-AC33-335E2010EA44}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E00312F9-60E5-4B40-BCB0-842BE0ADBFE4}" name="Next Series Team" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C95A1172-C01A-4F7A-88D2-75691086AB5E}" name="All Time XI" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{8133AE13-639A-4C2B-AC33-335E2010EA44}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{E00312F9-60E5-4B40-BCB0-842BE0ADBFE4}" name="Next Series Team" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{97BB52C6-A834-4059-A3DF-9A3DE8A8AC99}" name="Table12" displayName="Table12" ref="A54:C69" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23" headerRowBorderDxfId="25" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{97BB52C6-A834-4059-A3DF-9A3DE8A8AC99}" name="Table12" displayName="Table12" ref="A54:C69" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="A54:C69" xr:uid="{26E28288-E0B8-4A7D-8939-35BBF0876DCB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B74530FB-ECE3-4D27-B7A8-B5CEA9A10569}" name="All Time XI" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A2E882E8-6C9F-4E88-B0F5-35F37C518A8D}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{43F451DF-9D3E-4E74-AA6E-809BE4364D8C}" name="Next Series Team" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B74530FB-ECE3-4D27-B7A8-B5CEA9A10569}" name="All Time XI" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{A2E882E8-6C9F-4E88-B0F5-35F37C518A8D}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{43F451DF-9D3E-4E74-AA6E-809BE4364D8C}" name="Next Series Team" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50E05CD8-60CB-4259-851A-8AA88CCCCF7A}" name="Table2" displayName="Table2" ref="A17:C36" totalsRowShown="0">
+  <autoFilter ref="A17:C36" xr:uid="{55F63D17-CEE3-48C1-B3E8-04B484C37E87}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{28037B7D-4BAF-46E7-80C9-CC2476B51CB4}" name="All Time XI" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{83C0075C-5E38-4A32-8A72-2CDE4E27B53A}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{988BB3B4-5C4C-4F47-9920-304C18F462E0}" name="World Cup Team Predictions" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7969F839-03B8-40E9-A2D9-F3381C681543}" name="Table13" displayName="Table13" ref="A40:C60" totalsRowShown="0">
+  <autoFilter ref="A40:C60" xr:uid="{C14448C3-E2C6-4DC6-8782-6D3FA99084E6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{278AC4E1-B6DD-4830-8AA4-829B5AD89192}" name="All Time XI" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{BF0D57C3-2FDF-4DAC-BCB5-4C79C9F768E0}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{462D0119-D342-4AF9-A8E2-90F08037C2C7}" name="World Cup Team Predictions" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{277829E9-F1AB-483E-875A-8CA938280968}" name="Table14" displayName="Table14" ref="A63:C82" totalsRowShown="0">
+  <autoFilter ref="A63:C82" xr:uid="{4E924612-6879-473C-B3D1-6FB5E12A6BCC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6C06F159-6F3E-4DB8-B9F9-CF5BCA81FDC0}" name="All Time XI" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{1774D4CB-6D38-434C-A3FB-31673CA385C6}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{A4404DEC-34F4-41FB-B234-031665BAD378}" name="World Cup Team Predictions" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{DE0702A9-F354-4883-8FB4-666B9C146E0C}" name="Table15" displayName="Table15" ref="A86:C106" totalsRowShown="0">
+  <autoFilter ref="A86:C106" xr:uid="{DA72A6F0-7141-40EC-8F73-4362B7EFBEA4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{71D6BED7-5F6E-4753-B5F5-D8C3C30CDE53}" name="All Time XI" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{3DE1A327-442B-4891-B0F4-F293B70EB7F9}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{89F219DA-15B1-4F80-904A-0EE3C47CEB1E}" name="World Cup Team Predictions" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{16461E5F-EE4F-4F7C-A03D-46C4678424A2}" name="Table16" displayName="Table16" ref="A109:C126" totalsRowShown="0">
+  <autoFilter ref="A109:C126" xr:uid="{188196C7-CD17-4C23-B078-0EAD480377CF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E84F80B1-B3EF-4C75-9C39-19DF60550594}" name="All Time XI" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{997F35F2-30F1-4DE4-BD76-C0B3236586AF}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{46BC5381-CD57-4ABA-9473-A2058BF52D61}" name="World Cup Team Predictions" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{25A9C463-D6B5-477E-859A-95E3CF6DABC6}" name="Table17" displayName="Table17" ref="A132:C152" totalsRowShown="0">
+  <autoFilter ref="A132:C152" xr:uid="{D4B356DB-0A58-43EF-AC1F-BE9FC5380309}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1687C2D0-A6E8-419C-8004-6468BBAD546E}" name="All Time XI" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F8C0294F-FF5B-4A97-836F-D25F011BEEB1}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4EC24D59-F758-4888-A3E7-123E6563E063}" name="World Cup Team Predictions" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{24149354-6C7D-4EFD-B625-421FD2722EBF}" name="Table18" displayName="Table18" ref="A155:C174" totalsRowShown="0">
+  <autoFilter ref="A155:C174" xr:uid="{2C914F47-D1FB-454D-9FA8-90F61E1A9C22}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AC60DDDC-1B66-4720-832D-4DD128897E09}" name="All Time XI" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CF202BB1-5B58-402C-86DA-FFDBD3B42825}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{95D75CF9-4F54-4802-BAE7-EDFB44A6A572}" name="World Cup Team Predictions" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{AF2D2E2F-675A-404A-8BF5-A8399FFD9903}" name="Table19" displayName="Table19" ref="A178:C194" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A178:C194" xr:uid="{82F5398F-0E4A-4833-B7A1-8A2C5C7BC7ED}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{346EBA57-7EA7-4B46-BD74-6C3D4E510904}" name="All Time XI" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{FF8E36BD-59F6-4ED5-9135-C38F6EA4CF1D}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C69EB9AD-B5CE-4B58-9376-6087E391FA58}" name="World Cup Team Predictions" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{383756F9-A4CD-44EF-999F-3E0955C5C12C}" name="Table3" displayName="Table3" ref="A17:C32" headerRowCount="0" totalsRowShown="0" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{383756F9-A4CD-44EF-999F-3E0955C5C12C}" name="Table3" displayName="Table3" ref="A17:C32" headerRowCount="0" totalsRowShown="0" dataDxfId="102">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D2CA3C9F-F1A7-4A53-903C-94A75F772F85}" name="Australia" headerRowDxfId="20" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{2B334767-ED50-4CEC-8555-829843F205AA}" name="Australia2" headerRowDxfId="21" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0046AAF2-6264-4674-BDB3-5AF125CD060F}" name="Australia3" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D2CA3C9F-F1A7-4A53-903C-94A75F772F85}" name="Australia" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{2B334767-ED50-4CEC-8555-829843F205AA}" name="Australia2" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{0046AAF2-6264-4674-BDB3-5AF125CD060F}" name="Australia3" dataDxfId="97"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3B6C2D60-7CF0-449C-81C2-C3C94D626155}" name="Table20" displayName="Table20" ref="A197:C217" totalsRowShown="0">
+  <autoFilter ref="A197:C217" xr:uid="{3187EE85-B94D-4968-ABB1-3ABD35C1EE34}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{967FC468-66B0-4020-8D0B-9EBEF652AF74}" name="All Time XI" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{85096DE7-019C-4515-AA7B-2ACB7511B62C}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4A6435EC-8DCE-476A-9D32-1E51AA6E3B21}" name="World Cup Team Predictions" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{3B81B06B-12C6-4D23-86D5-6B8D8AC4DF21}" name="Table21" displayName="Table21" ref="A220:C238" totalsRowShown="0">
+  <autoFilter ref="A220:C238" xr:uid="{09FCC4D8-2A58-413D-BA46-29C4DE05BF9D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6D8C5501-E491-4928-8330-B661E4CD8F9E}" name="All Time XI" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{50267C0C-6E72-4456-8E99-50010B0123A9}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{562472CB-2290-47C8-9BA2-8D6AA73A1BFE}" name="World Cup Team Predictions" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{5A72F2F0-8B94-4ED1-90BB-E004588EA7B6}" name="Table22" displayName="Table22" ref="A3:B14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4">
+  <autoFilter ref="A3:B14" xr:uid="{24422678-B530-42A7-9DFD-690800FB2D29}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B4E81553-8EFE-4031-AA1F-0C64B85A1454}" name="All Time XI" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{66507226-127E-409F-8A7F-CAB2DE93C4D6}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{120705DD-37D9-432C-BEBB-B23B414BAC6F}" name="Table4" displayName="Table4" ref="A35:C51" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{120705DD-37D9-432C-BEBB-B23B414BAC6F}" name="Table4" displayName="Table4" ref="A35:C51" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A35:C51" xr:uid="{05F703C3-BE9F-48C0-AA9F-619AB2EBCAE4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2318E4A3-2768-456A-BBC8-D5F9A0A211E9}" name="Column1" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{58EE93CF-9D22-4CF0-91B5-7C862FFB3567}" name="Column2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{FCCA765E-B409-46BE-8344-9620B0A2E28E}" name="Column3" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{2318E4A3-2768-456A-BBC8-D5F9A0A211E9}" name="Column1" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{58EE93CF-9D22-4CF0-91B5-7C862FFB3567}" name="Column2" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{FCCA765E-B409-46BE-8344-9620B0A2E28E}" name="Column3" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9F9B082D-8957-4F7F-903C-96AECD037839}" name="Table5" displayName="Table5" ref="A179:C195" totalsRowShown="0" headerRowDxfId="57" dataDxfId="58" headerRowBorderDxfId="60" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9F9B082D-8957-4F7F-903C-96AECD037839}" name="Table5" displayName="Table5" ref="A179:C195" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88">
   <autoFilter ref="A179:C195" xr:uid="{D42C2B22-1BAB-4133-BF2A-A0039F7B7ADC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1E8731AB-2221-44E0-9A74-F5C38275B489}" name="Column1" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{19FF7A3B-F57E-4F9E-8FDC-BF452D7FC100}" name="Column2" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{726541EF-EFBB-424A-9FD6-4B74D06495DD}" name="Column3" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{1E8731AB-2221-44E0-9A74-F5C38275B489}" name="Column1" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{19FF7A3B-F57E-4F9E-8FDC-BF452D7FC100}" name="Column2" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{726541EF-EFBB-424A-9FD6-4B74D06495DD}" name="Column3" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8E420E2B-7516-4091-A34B-CE99B66F0F09}" name="Table6" displayName="Table6" ref="A162:C176" totalsRowShown="0" headerRowDxfId="52" dataDxfId="53" headerRowBorderDxfId="55" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8E420E2B-7516-4091-A34B-CE99B66F0F09}" name="Table6" displayName="Table6" ref="A162:C176" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81">
   <autoFilter ref="A162:C176" xr:uid="{1FF80EFF-510A-4DFA-8159-5711A99D9B76}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5AC187AF-83A2-41AF-A212-DE6694B8BD72}" name="All Time XI" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{43D53713-C651-4E0A-9417-E7543679BE63}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{174CDB8D-AA0C-464F-9CB3-5AA285DE2E27}" name="Next Series Team" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5AC187AF-83A2-41AF-A212-DE6694B8BD72}" name="All Time XI" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{43D53713-C651-4E0A-9417-E7543679BE63}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{174CDB8D-AA0C-464F-9CB3-5AA285DE2E27}" name="Next Series Team" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C40CF796-E68F-4C6E-90C7-AEA6477E967D}" name="Table7" displayName="Table7" ref="A144:C159" totalsRowShown="0" headerRowDxfId="47" dataDxfId="48" headerRowBorderDxfId="50" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C40CF796-E68F-4C6E-90C7-AEA6477E967D}" name="Table7" displayName="Table7" ref="A144:C159" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74">
   <autoFilter ref="A144:C159" xr:uid="{9A02D4CA-F0FF-44F9-8068-EBDEE66579D5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C62A8ECF-EC2E-4364-95D4-BBC7D55C832E}" name="All Time XI" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{37A9EF34-C158-494B-9038-CBF5F61295DE}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{27A7D815-6343-45D7-8D34-2CF6511826A5}" name="Next Series Team" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{C62A8ECF-EC2E-4364-95D4-BBC7D55C832E}" name="All Time XI" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{37A9EF34-C158-494B-9038-CBF5F61295DE}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{27A7D815-6343-45D7-8D34-2CF6511826A5}" name="Next Series Team" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5078C3F3-4B21-4B14-9C86-17F40261A3D8}" name="Table8" displayName="Table8" ref="A126:C141" totalsRowShown="0" headerRowDxfId="42" dataDxfId="43" headerRowBorderDxfId="45" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5078C3F3-4B21-4B14-9C86-17F40261A3D8}" name="Table8" displayName="Table8" ref="A126:C141" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67">
   <autoFilter ref="A126:C141" xr:uid="{9443495E-5773-42A4-8FCF-C8E54C905487}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D508CB2A-0FE9-4760-A7F3-7612F9A3FE77}" name="All Time XI" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{7EAFB763-2428-4883-9275-A5A5228FCAC9}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3C7C9041-92EC-4510-B08D-1E905BA1B867}" name="Next Series Team" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D508CB2A-0FE9-4760-A7F3-7612F9A3FE77}" name="All Time XI" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{7EAFB763-2428-4883-9275-A5A5228FCAC9}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{3C7C9041-92EC-4510-B08D-1E905BA1B867}" name="Next Series Team" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE55E67B-8A7B-49A5-A951-DEF52A65C871}" name="Table9" displayName="Table9" ref="A108:C123" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38" headerRowBorderDxfId="40" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE55E67B-8A7B-49A5-A951-DEF52A65C871}" name="Table9" displayName="Table9" ref="A108:C123" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60">
   <autoFilter ref="A108:C123" xr:uid="{C1DB9E5B-8D41-4F5A-86AF-120DE3134020}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5628F057-9D0A-47D6-B2D7-F9D8A08A9916}" name="All Time XI" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{F8BB3F8D-EBAE-4376-9053-73D5E6180C01}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{12CE50F4-D03C-4220-90D5-AE27D777C73C}" name="Next Series Team" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{5628F057-9D0A-47D6-B2D7-F9D8A08A9916}" name="All Time XI" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{F8BB3F8D-EBAE-4376-9053-73D5E6180C01}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{12CE50F4-D03C-4220-90D5-AE27D777C73C}" name="Next Series Team" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3033D7EF-0CE1-46D9-8D15-E78021862D5C}" name="Table10" displayName="Table10" ref="A90:C105" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33" headerRowBorderDxfId="35" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3033D7EF-0CE1-46D9-8D15-E78021862D5C}" name="Table10" displayName="Table10" ref="A90:C105" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
   <autoFilter ref="A90:C105" xr:uid="{892C675A-1557-4B1F-BA2A-8E1CD9B92740}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{79E17EC7-9DB7-4A2E-9B59-E1B01A321D3A}" name="All Time XI" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{19B45EBC-F309-477B-BE23-5F8BD0173D0E}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{54BCEE9C-2072-4252-8E07-C8944FA09F5F}" name="Next Series Team" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{79E17EC7-9DB7-4A2E-9B59-E1B01A321D3A}" name="All Time XI" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{19B45EBC-F309-477B-BE23-5F8BD0173D0E}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{54BCEE9C-2072-4252-8E07-C8944FA09F5F}" name="Next Series Team" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2702,7 +4511,7 @@
   <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A108" sqref="A108:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4583,12 +6392,2155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827015A-FB8F-4138-A0AE-D452C161AD3B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A198" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A204" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A205" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A206" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A207" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A208" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A219" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A220" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A221" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A222" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A223" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A224" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A225" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A226" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A227" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A228" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A229" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="11">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/All Team Preadictions Test and ODIs.xlsx
+++ b/All Team Preadictions Test and ODIs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajes\Desktop\Inside-Out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6E0913-D144-4EE9-A460-00F4C224CB7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAA4600-727D-4119-9CE0-93634294A37C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" activeTab="1" xr2:uid="{9FF0A19E-4CC4-453E-B28C-22FBE9E32ADB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" activeTab="2" xr2:uid="{9FF0A19E-4CC4-453E-B28C-22FBE9E32ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="ODIS" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests!$A$2:$B$2</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="655">
   <si>
     <t>Tests</t>
   </si>
@@ -1988,6 +1989,12 @@
   </si>
   <si>
     <t>World Cup Team Predictions</t>
+  </si>
+  <si>
+    <t>All Time Best Batsman</t>
+  </si>
+  <si>
+    <t>All Time Best Bowlers</t>
   </si>
 </sst>
 </file>
@@ -2113,25 +2120,6 @@
   <dxfs count="107">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2193,6 +2181,25 @@
           <color theme="4"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4070,12 +4077,12 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{AF2D2E2F-675A-404A-8BF5-A8399FFD9903}" name="Table19" displayName="Table19" ref="A178:C194" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{AF2D2E2F-675A-404A-8BF5-A8399FFD9903}" name="Table19" displayName="Table19" ref="A178:C194" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A178:C194" xr:uid="{82F5398F-0E4A-4833-B7A1-8A2C5C7BC7ED}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{346EBA57-7EA7-4B46-BD74-6C3D4E510904}" name="All Time XI" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{FF8E36BD-59F6-4ED5-9135-C38F6EA4CF1D}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C69EB9AD-B5CE-4B58-9376-6087E391FA58}" name="World Cup Team Predictions" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{346EBA57-7EA7-4B46-BD74-6C3D4E510904}" name="All Time XI" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{FF8E36BD-59F6-4ED5-9135-C38F6EA4CF1D}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C69EB9AD-B5CE-4B58-9376-6087E391FA58}" name="World Cup Team Predictions" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4117,11 +4124,11 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{5A72F2F0-8B94-4ED1-90BB-E004588EA7B6}" name="Table22" displayName="Table22" ref="A3:B14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{5A72F2F0-8B94-4ED1-90BB-E004588EA7B6}" name="Table22" displayName="Table22" ref="A3:B14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3">
   <autoFilter ref="A3:B14" xr:uid="{24422678-B530-42A7-9DFD-690800FB2D29}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B4E81553-8EFE-4031-AA1F-0C64B85A1454}" name="All Time XI" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{66507226-127E-409F-8A7F-CAB2DE93C4D6}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B4E81553-8EFE-4031-AA1F-0C64B85A1454}" name="All Time XI" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{66507226-127E-409F-8A7F-CAB2DE93C4D6}" name="All Time XI Modern(Start in and after 80s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6394,7 +6401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827015A-FB8F-4138-A0AE-D452C161AD3B}">
   <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8543,4 +8550,87 @@
     <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF68E79-8CDF-4169-971B-34D16AC966DC}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>